--- a/Project-Management/PMB/Usage and error reporting stats.xlsx
+++ b/Project-Management/PMB/Usage and error reporting stats.xlsx
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2023,7 +2023,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2045,6 +2045,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2138,7 +2144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2213,6 +2219,12 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5653,7 +5665,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6152,7 +6163,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6777,13 +6787,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>110</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>162</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>732</c:v>
+                  <c:v>966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6822,7 +6832,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>322</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6961,13 +6971,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.34375</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20930232558139536</c:v>
+                  <c:v>0.21705426356589147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.423841059602649</c:v>
+                  <c:v>3.1986754966887418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18311,7 +18321,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="E9:I191" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -19613,7 +19623,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="E18:I24" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -45789,7 +45799,7 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:A67"/>
+      <selection activeCell="H59" sqref="H59:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46167,47 +46177,47 @@
         <v>26</v>
       </c>
       <c r="B56" s="27">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C56" s="27">
         <v>0</v>
       </c>
       <c r="D56" s="27">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E56" s="27">
-        <v>211</v>
+        <v>360</v>
       </c>
       <c r="F56" s="6">
         <v>320</v>
       </c>
       <c r="G56">
         <f>B56/F56</f>
-        <v>0.34375</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="6">
-        <v>162</v>
-      </c>
-      <c r="C57" s="6">
+      <c r="B57" s="28">
+        <v>168</v>
+      </c>
+      <c r="C57" s="28">
         <v>0</v>
       </c>
-      <c r="D57" s="6">
-        <v>18</v>
-      </c>
-      <c r="E57" s="6">
-        <v>254</v>
+      <c r="D57" s="28">
+        <v>44</v>
+      </c>
+      <c r="E57" s="28">
+        <v>329</v>
       </c>
       <c r="F57" s="5">
         <v>774</v>
       </c>
       <c r="G57">
         <f t="shared" ref="G57:G58" si="0">B57/F57</f>
-        <v>0.20930232558139536</v>
+        <v>0.21705426356589147</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -46215,23 +46225,23 @@
         <v>85</v>
       </c>
       <c r="B58" s="5">
-        <v>732</v>
+        <v>966</v>
       </c>
       <c r="C58" s="5">
-        <v>322</v>
+        <v>475</v>
       </c>
       <c r="D58" s="5">
-        <v>160</v>
+        <v>506</v>
       </c>
       <c r="E58" s="5">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="F58" s="6">
         <v>302</v>
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>2.423841059602649</v>
+        <v>3.1986754966887418</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -46452,6 +46462,7 @@
     <hyperlink ref="A52" r:id="rId10" display="http://www.postgresql.org/docs/10./static/functions-logical.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>